--- a/document/FICO_ProfitCenter.xlsx
+++ b/document/FICO_ProfitCenter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\App Develop\VS2022\LaplaceNet.Vue\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\App Develop\VS2023\LaplaceNet\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA33A6C-EC0B-41C9-BE74-64B6FC9E2159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6278A24-09E3-40EB-B9BB-F21537377464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,15 @@
     <sheet name="FICO_ProfitCenter" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$M$34</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="153">
   <si>
     <t>GUID</t>
   </si>
@@ -473,7 +476,16 @@
     <t>update_time</t>
   </si>
   <si>
-    <t>NULL</t>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -483,7 +495,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -493,6 +505,11 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -522,11 +539,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2884,15 +2902,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDF387F-D065-4A26-815D-74D196DBD1E5}">
-  <dimension ref="A1:M40"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -2936,21 +2959,21 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
+        <v>132</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F2" s="2">
         <v>42309</v>
@@ -2961,37 +2984,34 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>150</v>
-      </c>
       <c r="J2" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="3">
-        <v>44895.233054861099</v>
+        <v>44927.691388888888</v>
       </c>
       <c r="L2" t="s">
         <v>32</v>
       </c>
       <c r="M2" s="3">
-        <v>44893.64627271991</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388888888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
+        <v>109</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F3" s="2">
         <v>42309</v>
@@ -3002,37 +3022,34 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
-        <v>150</v>
-      </c>
       <c r="J3" t="s">
         <v>32</v>
       </c>
       <c r="K3" s="3">
-        <v>44895.2747215278</v>
+        <v>44927.691388888888</v>
       </c>
       <c r="L3" t="s">
         <v>32</v>
       </c>
       <c r="M3" s="3">
-        <v>44895.357091319442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388888888</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
+        <v>125</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F4" s="2">
         <v>42309</v>
@@ -3043,37 +3060,34 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
-        <v>150</v>
-      </c>
       <c r="J4" t="s">
         <v>32</v>
       </c>
       <c r="K4" s="3">
-        <v>44895.316388194398</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L4" t="s">
         <v>32</v>
       </c>
       <c r="M4" s="3">
-        <v>44895.398757986099</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
+        <v>136</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F5" s="2">
         <v>42309</v>
@@ -3084,37 +3098,34 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="3">
+        <v>44927.691388831016</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="3">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="3">
-        <v>44895.358054861113</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="3">
-        <v>44895.440424652799</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
       </c>
       <c r="F6" s="2">
         <v>42309</v>
@@ -3129,30 +3140,30 @@
         <v>32</v>
       </c>
       <c r="K6" s="3">
-        <v>44895.3997215278</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L6" t="s">
         <v>32</v>
       </c>
       <c r="M6" s="3">
-        <v>44895.482091319398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
+        <v>91</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="F7" s="2">
         <v>42309</v>
@@ -3167,30 +3178,30 @@
         <v>32</v>
       </c>
       <c r="K7" s="3">
-        <v>44895.441388194398</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L7" t="s">
         <v>32</v>
       </c>
       <c r="M7" s="3">
-        <v>44895.523757986099</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
+        <v>79</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="F8" s="2">
         <v>42309</v>
@@ -3205,30 +3216,30 @@
         <v>32</v>
       </c>
       <c r="K8" s="3">
-        <v>44895.483054861099</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L8" t="s">
         <v>32</v>
       </c>
       <c r="M8" s="3">
-        <v>44895.565424652697</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
+        <v>97</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F9" s="2">
         <v>42309</v>
@@ -3243,30 +3254,30 @@
         <v>32</v>
       </c>
       <c r="K9" s="3">
-        <v>44895.5247215278</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L9" t="s">
         <v>32</v>
       </c>
       <c r="M9" s="3">
-        <v>44895.607091319398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
+        <v>63</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F10" s="2">
         <v>42309</v>
@@ -3281,30 +3292,30 @@
         <v>32</v>
       </c>
       <c r="K10" s="3">
-        <v>44895.566388194398</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L10" t="s">
         <v>32</v>
       </c>
       <c r="M10" s="3">
-        <v>44895.648757985997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
+        <v>94</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F11" s="2">
         <v>42309</v>
@@ -3319,30 +3330,30 @@
         <v>32</v>
       </c>
       <c r="K11" s="3">
-        <v>44895.608054861099</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L11" t="s">
         <v>32</v>
       </c>
       <c r="M11" s="3">
-        <v>44895.690424652697</v>
+        <v>44927.691388831016</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
+        <v>100</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="F12" s="2">
         <v>42309</v>
@@ -3357,30 +3368,30 @@
         <v>32</v>
       </c>
       <c r="K12" s="3">
-        <v>44895.6497215278</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L12" t="s">
         <v>32</v>
       </c>
       <c r="M12" s="3">
-        <v>44895.732091319398</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
+        <v>88</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F13" s="2">
         <v>42309</v>
@@ -3395,30 +3406,30 @@
         <v>32</v>
       </c>
       <c r="K13" s="3">
-        <v>44895.691388194398</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L13" t="s">
         <v>32</v>
       </c>
       <c r="M13" s="3">
-        <v>44895.773757985997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F14" s="2">
         <v>42309</v>
@@ -3433,30 +3444,30 @@
         <v>32</v>
       </c>
       <c r="K14" s="3">
-        <v>44895.733054861099</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L14" t="s">
         <v>32</v>
       </c>
       <c r="M14" s="3">
-        <v>44895.815424652697</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
+        <v>106</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F15" s="2">
         <v>42309</v>
@@ -3471,30 +3482,30 @@
         <v>32</v>
       </c>
       <c r="K15" s="3">
-        <v>44895.7747215278</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L15" t="s">
         <v>32</v>
       </c>
       <c r="M15" s="3">
-        <v>44895.857091319303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F16" s="2">
         <v>42309</v>
@@ -3509,30 +3520,30 @@
         <v>32</v>
       </c>
       <c r="K16" s="3">
-        <v>44895.816388194398</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L16" t="s">
         <v>32</v>
       </c>
       <c r="M16" s="3">
-        <v>44895.898757985997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
+        <v>51</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F17" s="2">
         <v>42309</v>
@@ -3547,30 +3558,30 @@
         <v>32</v>
       </c>
       <c r="K17" s="3">
-        <v>44895.858054861099</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L17" t="s">
         <v>32</v>
       </c>
       <c r="M17" s="3">
-        <v>44895.940424652603</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" t="s">
-        <v>39</v>
+        <v>60</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F18" s="2">
         <v>42309</v>
@@ -3585,30 +3596,30 @@
         <v>32</v>
       </c>
       <c r="K18" s="3">
-        <v>44895.8997215278</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L18" t="s">
         <v>32</v>
       </c>
       <c r="M18" s="3">
-        <v>44895.982091319303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" t="s">
-        <v>39</v>
+        <v>54</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F19" s="2">
         <v>42309</v>
@@ -3623,30 +3634,30 @@
         <v>32</v>
       </c>
       <c r="K19" s="3">
-        <v>44895.941388194398</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L19" t="s">
         <v>32</v>
       </c>
       <c r="M19" s="3">
-        <v>44896.023757985997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" t="s">
-        <v>39</v>
+        <v>48</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F20" s="2">
         <v>42309</v>
@@ -3661,30 +3672,30 @@
         <v>32</v>
       </c>
       <c r="K20" s="3">
-        <v>44895.983054861099</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L20" t="s">
         <v>32</v>
       </c>
       <c r="M20" s="3">
-        <v>44896.065424652603</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F21" s="2">
         <v>42309</v>
@@ -3699,30 +3710,30 @@
         <v>32</v>
       </c>
       <c r="K21" s="3">
-        <v>44896.0247215278</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L21" t="s">
         <v>32</v>
       </c>
       <c r="M21" s="3">
-        <v>44896.107091319303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" t="s">
-        <v>39</v>
+        <v>76</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F22" s="2">
         <v>42309</v>
@@ -3737,30 +3748,30 @@
         <v>32</v>
       </c>
       <c r="K22" s="3">
-        <v>44896.066388194398</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L22" t="s">
         <v>32</v>
       </c>
       <c r="M22" s="3">
-        <v>44896.148757985902</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" t="s">
-        <v>39</v>
+        <v>69</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F23" s="2">
         <v>42309</v>
@@ -3775,30 +3786,30 @@
         <v>32</v>
       </c>
       <c r="K23" s="3">
-        <v>44896.108054861099</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L23" t="s">
         <v>32</v>
       </c>
       <c r="M23" s="3">
-        <v>44896.190424652603</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" t="s">
-        <v>101</v>
+        <v>72</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F24" s="2">
         <v>42309</v>
@@ -3813,30 +3824,30 @@
         <v>32</v>
       </c>
       <c r="K24" s="3">
-        <v>44896.1497215278</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L24" t="s">
         <v>32</v>
       </c>
       <c r="M24" s="3">
-        <v>44896.232091319202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" t="s">
-        <v>39</v>
+        <v>57</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F25" s="2">
         <v>42309</v>
@@ -3851,30 +3862,30 @@
         <v>32</v>
       </c>
       <c r="K25" s="3">
-        <v>44896.191388194398</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L25" t="s">
         <v>32</v>
       </c>
       <c r="M25" s="3">
-        <v>44896.273757985902</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" t="s">
-        <v>39</v>
+        <v>66</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F26" s="2">
         <v>42309</v>
@@ -3889,30 +3900,30 @@
         <v>32</v>
       </c>
       <c r="K26" s="3">
-        <v>44896.233054861099</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L26" t="s">
         <v>32</v>
       </c>
       <c r="M26" s="3">
-        <v>44896.315424652603</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" t="s">
-        <v>39</v>
+        <v>118</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="F27" s="2">
         <v>42309</v>
@@ -3927,30 +3938,30 @@
         <v>32</v>
       </c>
       <c r="K27" s="3">
-        <v>44896.2747215278</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L27" t="s">
         <v>32</v>
       </c>
       <c r="M27" s="3">
-        <v>44896.357091319202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" t="s">
-        <v>39</v>
+        <v>115</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F28" s="2">
         <v>42309</v>
@@ -3965,30 +3976,30 @@
         <v>32</v>
       </c>
       <c r="K28" s="3">
-        <v>44896.316388194398</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L28" t="s">
         <v>32</v>
       </c>
       <c r="M28" s="3">
-        <v>44896.398757985902</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="F29" s="2">
         <v>42309</v>
@@ -4003,30 +4014,30 @@
         <v>32</v>
       </c>
       <c r="K29" s="3">
-        <v>44896.358054861099</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L29" t="s">
         <v>32</v>
       </c>
       <c r="M29" s="3">
-        <v>44896.440424652501</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
-      </c>
-      <c r="E30" t="s">
-        <v>29</v>
+        <v>85</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F30" s="2">
         <v>42309</v>
@@ -4041,30 +4052,30 @@
         <v>32</v>
       </c>
       <c r="K30" s="3">
-        <v>44896.3997215278</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L30" t="s">
         <v>32</v>
       </c>
       <c r="M30" s="3">
-        <v>44896.482091319202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" t="s">
-        <v>39</v>
+        <v>82</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F31" s="2">
         <v>42309</v>
@@ -4079,30 +4090,30 @@
         <v>32</v>
       </c>
       <c r="K31" s="3">
-        <v>44896.441388194398</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L31" t="s">
         <v>32</v>
       </c>
       <c r="M31" s="3">
-        <v>44896.5237579858</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
-      </c>
-      <c r="E32" t="s">
-        <v>39</v>
+        <v>128</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F32" s="2">
         <v>42309</v>
@@ -4117,30 +4128,30 @@
         <v>32</v>
       </c>
       <c r="K32" s="3">
-        <v>44896.483054861099</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L32" t="s">
         <v>32</v>
       </c>
       <c r="M32" s="3">
-        <v>44896.565424652501</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" t="s">
-        <v>39</v>
+        <v>121</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F33" s="2">
         <v>42309</v>
@@ -4155,30 +4166,30 @@
         <v>32</v>
       </c>
       <c r="K33" s="3">
-        <v>44896.5247215278</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L33" t="s">
         <v>32</v>
       </c>
       <c r="M33" s="3">
-        <v>44896.607091319202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44927.691388831016</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" t="s">
-        <v>39</v>
+        <v>103</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="F34" s="2">
         <v>42309</v>
@@ -4193,244 +4204,26 @@
         <v>32</v>
       </c>
       <c r="K34" s="3">
-        <v>44896.566388194398</v>
+        <v>44927.691388831016</v>
       </c>
       <c r="L34" t="s">
         <v>32</v>
       </c>
       <c r="M34" s="3">
-        <v>44896.6487579858</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" t="s">
-        <v>128</v>
-      </c>
-      <c r="E35" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" s="2">
-        <v>42309</v>
-      </c>
-      <c r="G35" s="2">
-        <v>2958465</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="J35" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" s="3">
-        <v>44896.608054861099</v>
-      </c>
-      <c r="L35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M35" s="3">
-        <v>44896.690424652501</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>128</v>
-      </c>
-      <c r="D36" t="s">
-        <v>128</v>
-      </c>
-      <c r="E36" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="2">
-        <v>42309</v>
-      </c>
-      <c r="G36" s="2">
-        <v>2958465</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
-        <v>32</v>
-      </c>
-      <c r="K36" s="3">
-        <v>44896.6497215278</v>
-      </c>
-      <c r="L36" t="s">
-        <v>32</v>
-      </c>
-      <c r="M36" s="3">
-        <v>44896.7320913191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D37" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="2">
-        <v>42309</v>
-      </c>
-      <c r="G37" s="2">
-        <v>2958465</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="J37" t="s">
-        <v>32</v>
-      </c>
-      <c r="K37" s="3">
-        <v>44896.691388194398</v>
-      </c>
-      <c r="L37" t="s">
-        <v>32</v>
-      </c>
-      <c r="M37" s="3">
-        <v>44896.7737579858</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" t="s">
-        <v>132</v>
-      </c>
-      <c r="E38" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" s="2">
-        <v>42309</v>
-      </c>
-      <c r="G38" s="2">
-        <v>2958465</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>32</v>
-      </c>
-      <c r="K38" s="3">
-        <v>44896.733054861099</v>
-      </c>
-      <c r="L38" t="s">
-        <v>32</v>
-      </c>
-      <c r="M38" s="3">
-        <v>44896.815424652399</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" t="s">
-        <v>135</v>
-      </c>
-      <c r="D39" t="s">
-        <v>136</v>
-      </c>
-      <c r="E39" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="2">
-        <v>42309</v>
-      </c>
-      <c r="G39" s="2">
-        <v>2958465</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="J39" t="s">
-        <v>32</v>
-      </c>
-      <c r="K39" s="3">
-        <v>44896.7747215278</v>
-      </c>
-      <c r="L39" t="s">
-        <v>32</v>
-      </c>
-      <c r="M39" s="3">
-        <v>44896.8570913191</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" t="s">
-        <v>135</v>
-      </c>
-      <c r="D40" t="s">
-        <v>136</v>
-      </c>
-      <c r="E40" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40" s="2">
-        <v>42309</v>
-      </c>
-      <c r="G40" s="2">
-        <v>2958465</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="J40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K40" s="3">
-        <v>44896.816388194398</v>
-      </c>
-      <c r="L40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M40" s="3">
-        <v>44896.898757985698</v>
+        <v>44927.691388831016</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M34" xr:uid="{DDDF387F-D065-4A26-815D-74D196DBD1E5}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="V"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M40">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
